--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/25022026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/25022026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miércoles, 25 de febrero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Lucas
-Lucas 11, 29-32 En aquel tiempo, la multitud se apiñaba alrededor de Jesús y comenzó a decirles: "La gente de este tiempo es una gente perversa. Pide una señal, pero no se le dará más señal que la de Jonás. Pues así como Jonás fue una señal para los habitantes de Nínive, lo mismo será el Hijo del hombre para la gente de este tiempo. Cuando sean juzgados los hombres de este tiempo, la reina del sur se levantará el día del juicio para condenarlos, porque ella vino desde los últimos rincones de la tierra para escuchar la sabiduría de Salomón, y aquí hay uno que es más que Salomón. Cuando sea juzgada la gente de este tiempo, los hombres de Nínive se levantarán el día del juicio para condenarla, porque ellos se convirtieron con la predicación de Jonás, y aquí hay uno que es más que Jonás".
-*Oración de la mañana*
-Querido Jesús, Hijo del hombre, que en tu infinita bondad y sabiduría nos recuerdas la necesidad constante de conversión y arrepentimiento. Ayúdame hoy a ser un signo de tu amor y misericordia en el mundo, tal como Jonás fue una señal para los habitantes de Nínive. Permíteme seguir tus pasos y ser más que lo que soy, buscando siempre tu palabra y viviendo según tu ejemplo.
-Doy gracias al Padre celestial, que con cada nuevo amanecer me brinda la oportunidad de crecer en fe y amor. Aprecio tu generosidad, Padre, por permitirme ser parte de este tiempo y esta generación, y te pido que me guíes para no buscar señales sino vivir según tu voluntad, apreciando las maravillas que ya has puesto en mi camino.
-Espíritu Santo, fuente de sabiduría y discernimiento, te pido que ilumines mi camino y me llenes de tu gracia. Que pueda escuchar y responder a tu llamado, convirtiéndome con la predicación de tu palabra y buscando siempre ser más en ti. Ayúdame a ser luz en la oscuridad, fuerza en la debilidad, y amor en un mundo necesitado de Ti.
-En el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 25 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 11, 29-32 En aquel tiempo, la multitud se apiñaba alrededor de Jesús y comenzó a decirles: "La gente de este tiempo es una gente perversa. Pide una señal, pero no se le dará más señal que la de Jonás. Pues así como Jonás fue una señal para los habitantes de Nínive, lo mismo será el Hijo del hombre para la gente de este tiempo. Cuando sean juzgados los hombres de este tiempo, la reina del sur se levantará el día del juicio para condenarlos, porque ella vino desde los últimos rincones de la tierra para escuchar la sabiduría de Salomón, y aquí hay uno que es más que Salomón. Cuando sea juzgada la gente de este tiempo, los hombres de Nínive se levantarán el día del juicio para condenarla, porque ellos se convirtieron con la predicación de Jonás, y aquí hay uno que es más que Jonás".
+*Oración de la mañana*
+Querido Jesús, Hijo del hombre, que en tu infinita bondad y sabiduría nos recuerdas la necesidad constante de conversión y arrepentimiento. Ayúdame hoy a ser un signo de tu amor y misericordia en el mundo, tal como Jonás fue una señal para los habitantes de Nínive. Permíteme seguir tus pasos y ser más que lo que soy, buscando siempre tu palabra y viviendo según tu ejemplo.
+Doy gracias al Padre celestial, que con cada nuevo amanecer me brinda la oportunidad de crecer en fe y amor. Aprecio tu generosidad, Padre, por permitirme ser parte de este tiempo y esta generación, y te pido que me guíes para no buscar señales sino vivir según tu voluntad, apreciando las maravillas que ya has puesto en mi camino.
+Espíritu Santo, fuente de sabiduría y discernimiento, te pido que ilumines mi camino y me llenes de tu gracia. Que pueda escuchar y responder a tu llamado, convirtiéndome con la predicación de tu palabra y buscando siempre ser más en ti. Ayúdame a ser luz en la oscuridad, fuerza en la debilidad, y amor en un mundo necesitado de Ti.
+En el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 25 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 11, 29-32 En aquel tiempo, la multitud se apiñaba alrededor de Jesús y comenzó a decirles: "La gente de este tiempo es una gente perversa. Pide una señal, pero no se le dará más señal que la de Jonás. Pues así como Jonás fue una señal para los habitantes de Nínive, lo mismo será el Hijo del hombre para la gente de este tiempo. Cuando sean juzgados los hombres de este tiempo, la reina del sur se levantará el día del juicio para condenarlos, porque ella vino desde los últimos rincones de la tierra para escuchar la sabiduría de Salomón, y aquí hay uno que es más que Salomón. Cuando sea juzgada la gente de este tiempo, los hombres de Nínive se levantarán el día del juicio para condenarla, porque ellos se convirtieron con la predicación de Jonás, y aquí hay uno que es más que Jonás".
+*Oración de la mañana*
+Querido Jesús, Hijo del hombre, que en tu infinita bondad y sabiduría nos recuerdas la necesidad constante de conversión y arrepentimiento. Ayúdame hoy a ser un signo de tu amor y misericordia en el mundo, tal como Jonás fue una señal para los habitantes de Nínive. Permíteme seguir tus pasos y ser más que lo que soy, buscando siempre tu palabra y viviendo según tu ejemplo.
+Doy gracias al Padre celestial, que con cada nuevo amanecer me brinda la oportunidad de crecer en fe y amor. Aprecio tu generosidad, Padre, por permitirme ser parte de este tiempo y esta generación, y te pido que me guíes para no buscar señales sino vivir según tu voluntad, apreciando las maravillas que ya has puesto en mi camino.
+Espíritu Santo, fuente de sabiduría y discernimiento, te pido que ilumines mi camino y me llenes de tu gracia. Que pueda escuchar y responder a tu llamado, convirtiéndome con la predicación de tu palabra y buscando siempre ser más en ti. Ayúdame a ser luz en la oscuridad, fuerza en la debilidad, y amor en un mundo necesitado de Ti.
+En el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 25 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 11, 29-32 En aquel tiempo, la multitud se apiñaba alrededor de Jesús y comenzó a decirles: "La gente de este tiempo es una gente perversa. Pide una señal, pero no se le dará más señal que la de Jonás. Pues así como Jonás fue una señal para los habitantes de Nínive, lo mismo será el Hijo del hombre para la gente de este tiempo. Cuando sean juzgados los hombres de este tiempo, la reina del sur se levantará el día del juicio para condenarlos, porque ella vino desde los últimos rincones de la tierra para escuchar la sabiduría de Salomón, y aquí hay uno que es más que Salomón. Cuando sea juzgada la gente de este tiempo, los hombres de Nínive se levantarán el día del juicio para condenarla, porque ellos se convirtieron con la predicación de Jonás, y aquí hay uno que es más que Jonás".
+*Oración de la mañana*
+Querido Jesús, Hijo del hombre, que en tu infinita bondad y sabiduría nos recuerdas la necesidad constante de conversión y arrepentimiento. Ayúdame hoy a ser un signo de tu amor y misericordia en el mundo, tal como Jonás fue una señal para los habitantes de Nínive. Permíteme seguir tus pasos y ser más que lo que soy, buscando siempre tu palabra y viviendo según tu ejemplo.
+Doy gracias al Padre celestial, que con cada nuevo amanecer me brinda la oportunidad de crecer en fe y amor. Aprecio tu generosidad, Padre, por permitirme ser parte de este tiempo y esta generación, y te pido que me guíes para no buscar señales sino vivir según tu voluntad, apreciando las maravillas que ya has puesto en mi camino.
+Espíritu Santo, fuente de sabiduría y discernimiento, te pido que ilumines mi camino y me llenes de tu gracia. Que pueda escuchar y responder a tu llamado, convirtiéndome con la predicación de tu palabra y buscando siempre ser más en ti. Ayúdame a ser luz en la oscuridad, fuerza en la debilidad, y amor en un mundo necesitado de Ti.
+En el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 25 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 11, 29-32 En aquel tiempo, la multitud se apiñaba alrededor de Jesús y comenzó a decirles: "La gente de este tiempo es una gente perversa. Pide una señal, pero no se le dará más señal que la de Jonás. Pues así como Jonás fue una señal para los habitantes de Nínive, lo mismo será el Hijo del hombre para la gente de este tiempo. Cuando sean juzgados los hombres de este tiempo, la reina del sur se levantará el día del juicio para condenarlos, porque ella vino desde los últimos rincones de la tierra para escuchar la sabiduría de Salomón, y aquí hay uno que es más que Salomón. Cuando sea juzgada la gente de este tiempo, los hombres de Nínive se levantarán el día del juicio para condenarla, porque ellos se convirtieron con la predicación de Jonás, y aquí hay uno que es más que Jonás".
+*Oración de la mañana*
+Querido Jesús, Hijo del hombre, que en tu infinita bondad y sabiduría nos recuerdas la necesidad constante de conversión y arrepentimiento. Ayúdame hoy a ser un signo de tu amor y misericordia en el mundo, tal como Jonás fue una señal para los habitantes de Nínive. Permíteme seguir tus pasos y ser más que lo que soy, buscando siempre tu palabra y viviendo según tu ejemplo.
+Doy gracias al Padre celestial, que con cada nuevo amanecer me brinda la oportunidad de crecer en fe y amor. Aprecio tu generosidad, Padre, por permitirme ser parte de este tiempo y esta generación, y te pido que me guíes para no buscar señales sino vivir según tu voluntad, apreciando las maravillas que ya has puesto en mi camino.
+Espíritu Santo, fuente de sabiduría y discernimiento, te pido que ilumines mi camino y me llenes de tu gracia. Que pueda escuchar y responder a tu llamado, convirtiéndome con la predicación de tu palabra y buscando siempre ser más en ti. Ayúdame a ser luz en la oscuridad, fuerza en la debilidad, y amor en un mundo necesitado de Ti.
+En el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 25 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 11, 29-32 En aquel tiempo, la multitud se apiñaba alrededor de Jesús y comenzó a decirles: "La gente de este tiempo es una gente perversa. Pide una señal, pero no se le dará más señal que la de Jonás. Pues así como Jonás fue una señal para los habitantes de Nínive, lo mismo será el Hijo del hombre para la gente de este tiempo. Cuando sean juzgados los hombres de este tiempo, la reina del sur se levantará el día del juicio para condenarlos, porque ella vino desde los últimos rincones de la tierra para escuchar la sabiduría de Salomón, y aquí hay uno que es más que Salomón. Cuando sea juzgada la gente de este tiempo, los hombres de Nínive se levantarán el día del juicio para condenarla, porque ellos se convirtieron con la predicación de Jonás, y aquí hay uno que es más que Jonás".
+*Oración de la mañana*
+Querido Jesús, Hijo del hombre, que en tu infinita bondad y sabiduría nos recuerdas la necesidad constante de conversión y arrepentimiento. Ayúdame hoy a ser un signo de tu amor y misericordia en el mundo, tal como Jonás fue una señal para los habitantes de Nínive. Permíteme seguir tus pasos y ser más que lo que soy, buscando siempre tu palabra y viviendo según tu ejemplo.
+Doy gracias al Padre celestial, que con cada nuevo amanecer me brinda la oportunidad de crecer en fe y amor. Aprecio tu generosidad, Padre, por permitirme ser parte de este tiempo y esta generación, y te pido que me guíes para no buscar señales sino vivir según tu voluntad, apreciando las maravillas que ya has puesto en mi camino.
+Espíritu Santo, fuente de sabiduría y discernimiento, te pido que ilumines mi camino y me llenes de tu gracia. Que pueda escuchar y responder a tu llamado, convirtiéndome con la predicación de tu palabra y buscando siempre ser más en ti. Ayúdame a ser luz en la oscuridad, fuerza en la debilidad, y amor en un mundo necesitado de Ti.
+En el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>miércoles, 25 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 11, 29-32 En aquel tiempo, la multitud se apiñaba alrededor de Jesús y comenzó a decirles: "La gente de este tiempo es una gente perversa. Pide una señal, pero no se le dará más señal que la de Jonás. Pues así como Jonás fue una señal para los habitantes de Nínive, lo mismo será el Hijo del hombre para la gente de este tiempo. Cuando sean juzgados los hombres de este tiempo, la reina del sur se levantará el día del juicio para condenarlos, porque ella vino desde los últimos rincones de la tierra para escuchar la sabiduría de Salomón, y aquí hay uno que es más que Salomón. Cuando sea juzgada la gente de este tiempo, los hombres de Nínive se levantarán el día del juicio para condenarla, porque ellos se convirtieron con la predicación de Jonás, y aquí hay uno que es más que Jonás".
+*Oración de la mañana*
+Querido Jesús, Hijo del hombre, que en tu infinita bondad y sabiduría nos recuerdas la necesidad constante de conversión y arrepentimiento. Ayúdame hoy a ser un signo de tu amor y misericordia en el mundo, tal como Jonás fue una señal para los habitantes de Nínive. Permíteme seguir tus pasos y ser más que lo que soy, buscando siempre tu palabra y viviendo según tu ejemplo.
+Doy gracias al Padre celestial, que con cada nuevo amanecer me brinda la oportunidad de crecer en fe y amor. Aprecio tu generosidad, Padre, por permitirme ser parte de este tiempo y esta generación, y te pido que me guíes para no buscar señales sino vivir según tu voluntad, apreciando las maravillas que ya has puesto en mi camino.
+Espíritu Santo, fuente de sabiduría y discernimiento, te pido que ilumines mi camino y me llenes de tu gracia. Que pueda escuchar y responder a tu llamado, convirtiéndome con la predicación de tu palabra y buscando siempre ser más en ti. Ayúdame a ser luz en la oscuridad, fuerza en la debilidad, y amor en un mundo necesitado de Ti.
+En el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>miércoles, 25 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 11, 29-32 En aquel tiempo, la multitud se apiñaba alrededor de Jesús y comenzó a decirles: "La gente de este tiempo es una gente perversa. Pide una señal, pero no se le dará más señal que la de Jonás. Pues así como Jonás fue una señal para los habitantes de Nínive, lo mismo será el Hijo del hombre para la gente de este tiempo. Cuando sean juzgados los hombres de este tiempo, la reina del sur se levantará el día del juicio para condenarlos, porque ella vino desde los últimos rincones de la tierra para escuchar la sabiduría de Salomón, y aquí hay uno que es más que Salomón. Cuando sea juzgada la gente de este tiempo, los hombres de Nínive se levantarán el día del juicio para condenarla, porque ellos se convirtieron con la predicación de Jonás, y aquí hay uno que es más que Jonás".
+*Oración de la mañana*
+Querido Jesús, Hijo del hombre, que en tu infinita bondad y sabiduría nos recuerdas la necesidad constante de conversión y arrepentimiento. Ayúdame hoy a ser un signo de tu amor y misericordia en el mundo, tal como Jonás fue una señal para los habitantes de Nínive. Permíteme seguir tus pasos y ser más que lo que soy, buscando siempre tu palabra y viviendo según tu ejemplo.
+Doy gracias al Padre celestial, que con cada nuevo amanecer me brinda la oportunidad de crecer en fe y amor. Aprecio tu generosidad, Padre, por permitirme ser parte de este tiempo y esta generación, y te pido que me guíes para no buscar señales sino vivir según tu voluntad, apreciando las maravillas que ya has puesto en mi camino.
+Espíritu Santo, fuente de sabiduría y discernimiento, te pido que ilumines mi camino y me llenes de tu gracia. Que pueda escuchar y responder a tu llamado, convirtiéndome con la predicación de tu palabra y buscando siempre ser más en ti. Ayúdame a ser luz en la oscuridad, fuerza en la debilidad, y amor en un mundo necesitado de Ti.
+En el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>miércoles, 25 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 11, 29-32 En aquel tiempo, la multitud se apiñaba alrededor de Jesús y comenzó a decirles: "La gente de este tiempo es una gente perversa. Pide una señal, pero no se le dará más señal que la de Jonás. Pues así como Jonás fue una señal para los habitantes de Nínive, lo mismo será el Hijo del hombre para la gente de este tiempo. Cuando sean juzgados los hombres de este tiempo, la reina del sur se levantará el día del juicio para condenarlos, porque ella vino desde los últimos rincones de la tierra para escuchar la sabiduría de Salomón, y aquí hay uno que es más que Salomón. Cuando sea juzgada la gente de este tiempo, los hombres de Nínive se levantarán el día del juicio para condenarla, porque ellos se convirtieron con la predicación de Jonás, y aquí hay uno que es más que Jonás".
+*Oración de la mañana*
+Querido Jesús, Hijo del hombre, que en tu infinita bondad y sabiduría nos recuerdas la necesidad constante de conversión y arrepentimiento. Ayúdame hoy a ser un signo de tu amor y misericordia en el mundo, tal como Jonás fue una señal para los habitantes de Nínive. Permíteme seguir tus pasos y ser más que lo que soy, buscando siempre tu palabra y viviendo según tu ejemplo.
+Doy gracias al Padre celestial, que con cada nuevo amanecer me brinda la oportunidad de crecer en fe y amor. Aprecio tu generosidad, Padre, por permitirme ser parte de este tiempo y esta generación, y te pido que me guíes para no buscar señales sino vivir según tu voluntad, apreciando las maravillas que ya has puesto en mi camino.
+Espíritu Santo, fuente de sabiduría y discernimiento, te pido que ilumines mi camino y me llenes de tu gracia. Que pueda escuchar y responder a tu llamado, convirtiéndome con la predicación de tu palabra y buscando siempre ser más en ti. Ayúdame a ser luz en la oscuridad, fuerza en la debilidad, y amor en un mundo necesitado de Ti.
+En el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>miércoles, 25 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 11, 29-32 En aquel tiempo, la multitud se apiñaba alrededor de Jesús y comenzó a decirles: "La gente de este tiempo es una gente perversa. Pide una señal, pero no se le dará más señal que la de Jonás. Pues así como Jonás fue una señal para los habitantes de Nínive, lo mismo será el Hijo del hombre para la gente de este tiempo. Cuando sean juzgados los hombres de este tiempo, la reina del sur se levantará el día del juicio para condenarlos, porque ella vino desde los últimos rincones de la tierra para escuchar la sabiduría de Salomón, y aquí hay uno que es más que Salomón. Cuando sea juzgada la gente de este tiempo, los hombres de Nínive se levantarán el día del juicio para condenarla, porque ellos se convirtieron con la predicación de Jonás, y aquí hay uno que es más que Jonás".
+*Oración de la mañana*
+Querido Jesús, Hijo del hombre, que en tu infinita bondad y sabiduría nos recuerdas la necesidad constante de conversión y arrepentimiento. Ayúdame hoy a ser un signo de tu amor y misericordia en el mundo, tal como Jonás fue una señal para los habitantes de Nínive. Permíteme seguir tus pasos y ser más que lo que soy, buscando siempre tu palabra y viviendo según tu ejemplo.
+Doy gracias al Padre celestial, que con cada nuevo amanecer me brinda la oportunidad de crecer en fe y amor. Aprecio tu generosidad, Padre, por permitirme ser parte de este tiempo y esta generación, y te pido que me guíes para no buscar señales sino vivir según tu voluntad, apreciando las maravillas que ya has puesto en mi camino.
+Espíritu Santo, fuente de sabiduría y discernimiento, te pido que ilumines mi camino y me llenes de tu gracia. Que pueda escuchar y responder a tu llamado, convirtiéndome con la predicación de tu palabra y buscando siempre ser más en ti. Ayúdame a ser luz en la oscuridad, fuerza en la debilidad, y amor en un mundo necesitado de Ti.
+En el nombre del Padre, del Hijo y del Espíritu Santo. Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>